--- a/excel/汽车类图纸目录表.xlsx
+++ b/excel/汽车类图纸目录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="车载编号1" sheetId="1" r:id="rId1"/>
@@ -5098,11 +5098,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="83">
     <font>
@@ -5485,23 +5485,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5515,29 +5515,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5551,56 +5545,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5616,7 +5562,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5624,6 +5600,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5656,13 +5656,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,37 +5698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5722,13 +5722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5740,19 +5764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5764,7 +5782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5776,37 +5794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5818,25 +5818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5936,6 +5936,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5946,21 +5961,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5976,8 +5976,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5988,6 +5990,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6003,17 +6014,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6040,10 +6040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6052,133 +6052,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21709,8 +21709,8 @@
   <sheetPr/>
   <dimension ref="A1:I407"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="35.1" customHeight="1"/>
@@ -25629,17 +25629,15 @@
     <mergeCell ref="B65:D65"/>
   </mergeCells>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
-  <rowBreaks count="5" manualBreakCount="5">
-    <brk id="5" max="16383" man="1"/>
-    <brk id="21" max="16383" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="32" max="16383" man="1"/>
     <brk id="64" max="16383" man="1"/>
     <brk id="106" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="6" max="1048575" man="1"/>
+    <brk id="5" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -25649,8 +25647,8 @@
   <sheetPr/>
   <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="35.1" customHeight="1" outlineLevelCol="6"/>

--- a/excel/汽车类图纸目录表.xlsx
+++ b/excel/汽车类图纸目录表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="1668">
   <si>
     <t>图纸登记表</t>
   </si>
@@ -3768,7 +3768,7 @@
     <t>旺昀（本田/亚亿）</t>
   </si>
   <si>
-    <t xml:space="preserve"> 旧料号图纸/2120011302101</t>
+    <t>待改SIP尺寸</t>
   </si>
   <si>
     <t>USB A/F 黑胶芯</t>
@@ -4234,6 +4234,12 @@
   </si>
   <si>
     <t>220342200021A</t>
+  </si>
+  <si>
+    <t>69（无零件图纸）</t>
+  </si>
+  <si>
+    <t>206172990011B</t>
   </si>
   <si>
     <t>224540200111A</t>
@@ -5100,8 +5106,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="83">
@@ -5485,18 +5491,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5508,14 +5529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5537,16 +5551,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5561,7 +5582,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5575,22 +5596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -5598,8 +5603,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5607,7 +5621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5616,14 +5630,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5656,96 +5662,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5758,55 +5674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5824,7 +5698,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5836,7 +5824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5936,16 +5942,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5976,17 +5991,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -5994,26 +5998,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6040,10 +6046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6052,133 +6058,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7215,7 +7221,7 @@
   <sheetPr/>
   <dimension ref="A1:I430"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A22" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -9831,7 +9837,7 @@
   <sheetPr/>
   <dimension ref="A1:I478"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -13621,7 +13627,7 @@
   <sheetPr/>
   <dimension ref="A1:I428"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A62" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A104" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -21709,7 +21715,7 @@
   <sheetPr/>
   <dimension ref="A1:I407"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -25647,8 +25653,8 @@
   <sheetPr/>
   <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="35.1" customHeight="1" outlineLevelCol="6"/>
@@ -26837,13 +26843,21 @@
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A73" s="28">
-        <v>69</v>
-      </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="150" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A74" s="28">
@@ -29360,10 +29374,10 @@
         <v>88</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -29375,10 +29389,10 @@
         <v>88</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -29390,13 +29404,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="123" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1389</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>1387</v>
-      </c>
       <c r="E4" s="21" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" customHeight="1" spans="1:5">
@@ -29404,13 +29418,13 @@
         <v>446</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E5" s="14"/>
     </row>
@@ -29419,13 +29433,13 @@
         <v>448</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -29437,10 +29451,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -29452,10 +29466,10 @@
         <v>44</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E8" s="24"/>
     </row>
@@ -29467,10 +29481,10 @@
         <v>669</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E9" s="24"/>
     </row>
@@ -29482,10 +29496,10 @@
         <v>360</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E10" s="24"/>
     </row>
@@ -29497,10 +29511,10 @@
         <v>95</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E11" s="24"/>
     </row>
@@ -29512,10 +29526,10 @@
         <v>88</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E12" s="24"/>
     </row>
@@ -29524,13 +29538,13 @@
         <v>758</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E13" s="14"/>
     </row>
@@ -29539,13 +29553,13 @@
         <v>761</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -29557,10 +29571,10 @@
         <v>354</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E15" s="38"/>
     </row>
@@ -29569,13 +29583,13 @@
         <v>765</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E16" s="38"/>
     </row>
@@ -29587,10 +29601,10 @@
         <v>354</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E17" s="38"/>
     </row>
@@ -29599,13 +29613,13 @@
         <v>493</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E18" s="38"/>
     </row>
@@ -29617,10 +29631,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E19" s="38"/>
     </row>
@@ -29629,13 +29643,13 @@
         <v>499</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -29647,10 +29661,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -29662,10 +29676,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E22" s="14"/>
     </row>
@@ -29677,10 +29691,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E23" s="14"/>
     </row>
@@ -29689,13 +29703,13 @@
         <v>775</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="45"/>
@@ -29708,13 +29722,13 @@
         <v>779</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="46"/>
@@ -29727,10 +29741,10 @@
         <v>88</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E26" s="14"/>
     </row>
@@ -29742,10 +29756,10 @@
         <v>263</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E27" s="38"/>
     </row>
@@ -29754,13 +29768,13 @@
         <v>525</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E28" s="38"/>
     </row>
@@ -29769,13 +29783,13 @@
         <v>1018</v>
       </c>
       <c r="B29" s="123" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E29" s="38"/>
     </row>
@@ -29784,13 +29798,13 @@
         <v>530</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E30" s="26"/>
     </row>
@@ -29799,13 +29813,13 @@
         <v>533</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E31" s="14"/>
     </row>
@@ -29817,10 +29831,10 @@
         <v>354</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E32" s="38"/>
     </row>
@@ -29829,13 +29843,13 @@
         <v>538</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E33" s="26"/>
     </row>
@@ -29844,13 +29858,13 @@
         <v>541</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E34" s="38"/>
     </row>
@@ -29859,13 +29873,13 @@
         <v>544</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -29874,13 +29888,13 @@
         <v>821</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>436</v>
@@ -29896,16 +29910,16 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A38" s="30" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E38" s="14"/>
     </row>
@@ -29914,13 +29928,13 @@
         <v>1040</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E39" s="14"/>
     </row>
@@ -29932,10 +29946,10 @@
         <v>358</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -29947,10 +29961,10 @@
         <v>44</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E41" s="26"/>
     </row>
@@ -29962,10 +29976,10 @@
         <v>88</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E42" s="38"/>
     </row>
@@ -29974,13 +29988,13 @@
         <v>1051</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C43" s="129" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E43" s="38"/>
     </row>
@@ -29992,10 +30006,10 @@
         <v>354</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E44" s="63"/>
     </row>
@@ -30007,10 +30021,10 @@
         <v>354</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E45" s="63"/>
     </row>
@@ -30019,13 +30033,13 @@
         <v>1060</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E46" s="64"/>
     </row>
@@ -30034,13 +30048,13 @@
         <v>1063</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E47" s="63"/>
     </row>
@@ -30049,13 +30063,13 @@
         <v>1066</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E48" s="28"/>
     </row>
@@ -30064,13 +30078,13 @@
         <v>1069</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E49" s="28"/>
     </row>
@@ -30079,13 +30093,13 @@
         <v>587</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E50" s="28"/>
     </row>
@@ -30094,13 +30108,13 @@
         <v>590</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E51" s="14"/>
     </row>
@@ -30109,13 +30123,13 @@
         <v>592</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E52" s="14"/>
     </row>
@@ -32519,16 +32533,16 @@
         <v>437</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -32536,16 +32550,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="96" customHeight="1" spans="1:5">
@@ -32553,16 +32567,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="110" customHeight="1" spans="1:5">
@@ -32570,16 +32584,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
@@ -32587,16 +32601,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -32604,16 +32618,16 @@
         <v>744</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -32621,16 +32635,16 @@
         <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="136" customHeight="1" spans="1:5">
@@ -32638,16 +32652,16 @@
         <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -32655,16 +32669,16 @@
         <v>751</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="55" customHeight="1" spans="1:5">
@@ -32672,16 +32686,16 @@
         <v>964</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="49" customHeight="1" spans="1:5">
@@ -32689,13 +32703,13 @@
         <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E13" s="14"/>
     </row>
@@ -32704,13 +32718,13 @@
         <v>758</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E14" s="24"/>
     </row>
@@ -32719,16 +32733,16 @@
         <v>761</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
@@ -32736,33 +32750,33 @@
         <v>763</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A17" s="92" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
@@ -32770,33 +32784,33 @@
         <v>980</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A19" s="92" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -32804,13 +32818,13 @@
         <v>496</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E20" s="21"/>
     </row>
@@ -32819,16 +32833,16 @@
         <v>991</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
@@ -32836,16 +32850,16 @@
         <v>995</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>1529</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>1527</v>
-      </c>
       <c r="E22" s="21" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
@@ -32853,16 +32867,16 @@
         <v>999</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:9">
@@ -32870,16 +32884,16 @@
         <v>507</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="46"/>
@@ -32891,16 +32905,16 @@
         <v>511</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="F25" s="46"/>
     </row>
@@ -32909,13 +32923,13 @@
         <v>779</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="E26" s="24"/>
     </row>
@@ -32924,13 +32938,13 @@
         <v>1010</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>436</v>
@@ -32941,13 +32955,13 @@
         <v>1013</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="E28" s="24"/>
     </row>
@@ -32956,13 +32970,13 @@
         <v>788</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>436</v>
@@ -32973,13 +32987,13 @@
         <v>792</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>436</v>
@@ -32990,16 +33004,16 @@
         <v>796</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E31" s="97" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -33007,16 +33021,16 @@
         <v>801</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -33024,16 +33038,16 @@
         <v>806</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
@@ -33041,16 +33055,16 @@
         <v>809</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E34" s="97" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -33058,16 +33072,16 @@
         <v>813</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E35" s="97" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
@@ -33075,13 +33089,13 @@
         <v>818</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>436</v>
@@ -35901,7 +35915,7 @@
   <sheetPr/>
   <dimension ref="A1:I412"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A67" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -35930,10 +35944,10 @@
         <v>437</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>701</v>
@@ -35948,13 +35962,13 @@
         <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:5">
@@ -35965,10 +35979,10 @@
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="E4" s="19"/>
     </row>
@@ -35980,13 +35994,13 @@
         <v>354</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>604</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
@@ -35994,16 +36008,16 @@
         <v>448</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>604</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="66" customHeight="1" spans="1:5">
@@ -36011,10 +36025,10 @@
         <v>744</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>632</v>
@@ -36026,10 +36040,10 @@
         <v>746</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>632</v>
@@ -36044,7 +36058,7 @@
         <v>697</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>461</v>
@@ -36059,7 +36073,7 @@
         <v>213</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>461</v>
@@ -36074,7 +36088,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>461</v>
@@ -36089,10 +36103,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="E12" s="24"/>
     </row>
@@ -36101,10 +36115,10 @@
         <v>758</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>461</v>
@@ -36119,7 +36133,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>662</v>
@@ -36134,10 +36148,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E15" s="38"/>
     </row>
@@ -36146,10 +36160,10 @@
         <v>765</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>632</v>
@@ -36164,13 +36178,13 @@
         <v>454</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>604</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36181,13 +36195,13 @@
         <v>454</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>604</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="44" customHeight="1" spans="1:5">
@@ -36198,7 +36212,7 @@
         <v>358</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>456</v>
@@ -36213,7 +36227,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>456</v>
@@ -36228,7 +36242,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>456</v>
@@ -36243,13 +36257,13 @@
         <v>95</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
@@ -36260,13 +36274,13 @@
         <v>44</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="43" customHeight="1" spans="1:9">
@@ -36277,13 +36291,13 @@
         <v>40</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>1607</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>1605</v>
-      </c>
       <c r="E24" s="21" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="46"/>
@@ -36295,16 +36309,16 @@
         <v>1006</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="F25" s="46"/>
     </row>
@@ -36316,13 +36330,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="40" customHeight="1" spans="1:5">
@@ -36333,13 +36347,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
@@ -36350,7 +36364,7 @@
         <v>505</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>461</v>
@@ -36362,10 +36376,10 @@
         <v>1018</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>461</v>
@@ -36377,16 +36391,16 @@
         <v>530</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="37" customHeight="1" spans="1:5">
@@ -36394,10 +36408,10 @@
         <v>801</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>662</v>
@@ -36411,10 +36425,10 @@
         <v>806</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>547</v>
@@ -36431,10 +36445,10 @@
         <v>697</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>436</v>
@@ -36448,13 +36462,13 @@
         <v>454</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
@@ -36465,10 +36479,10 @@
         <v>454</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -36477,16 +36491,16 @@
         <v>821</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36506,13 +36520,13 @@
         <v>218</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36523,13 +36537,13 @@
         <v>71</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>1638</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>1636</v>
-      </c>
       <c r="E39" s="30" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36537,16 +36551,16 @@
         <v>834</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36554,16 +36568,16 @@
         <v>837</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="37" customHeight="1" spans="1:5">
@@ -36571,16 +36585,16 @@
         <v>840</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36588,16 +36602,16 @@
         <v>845</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -36608,13 +36622,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
@@ -36625,13 +36639,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
@@ -36642,13 +36656,13 @@
         <v>531</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="48" customHeight="1" spans="1:5">
@@ -36656,16 +36670,16 @@
         <v>144</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="37" customHeight="1" spans="1:5">
@@ -36673,16 +36687,16 @@
         <v>147</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="40" customHeight="1" spans="1:5">
@@ -36690,16 +36704,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="69" customHeight="1" spans="1:5">
